--- a/Development/IW/Management/IW-CP.xlsx
+++ b/Development/IW/Management/IW-CP.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpacePersonal\WorkSpace PDF's, textos y ppt's\UNMSM\Ciclo VI\GCS\Proyecto\indieGit\Development\IW\Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68965C56-BA49-4B5B-A8E8-F158B1C3957D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFBDE37A-5408-40C2-ACF0-E7E6F25AB633}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Cronograma" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -796,8 +796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q1017"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="Q49" sqref="Q49"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="P40" sqref="P40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -806,8 +806,9 @@
     <col min="2" max="2" width="53.25" customWidth="1"/>
     <col min="3" max="3" width="3" customWidth="1"/>
     <col min="4" max="11" width="2.625" customWidth="1"/>
-    <col min="12" max="15" width="3.5" customWidth="1"/>
-    <col min="16" max="16" width="29.25" customWidth="1"/>
+    <col min="12" max="14" width="3.5" customWidth="1"/>
+    <col min="15" max="15" width="4.625" customWidth="1"/>
+    <col min="16" max="16" width="31.375" customWidth="1"/>
     <col min="17" max="26" width="9.375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1706,7 +1707,7 @@
       <c r="M38" s="6"/>
       <c r="N38" s="6"/>
       <c r="O38" s="6"/>
-      <c r="P38" s="7" t="s">
+      <c r="P38" s="13" t="s">
         <v>66</v>
       </c>
       <c r="Q38" s="11">
@@ -1730,7 +1731,7 @@
       <c r="M39" s="15"/>
       <c r="N39" s="6"/>
       <c r="O39" s="6"/>
-      <c r="P39" s="7" t="s">
+      <c r="P39" s="13" t="s">
         <v>66</v>
       </c>
       <c r="Q39" s="11">

--- a/Development/IW/Management/IW-CP.xlsx
+++ b/Development/IW/Management/IW-CP.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Edwin\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Projects\GitHub\IndieWorks\Development\IW\Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6934D95A-E933-4C43-A3C4-AFE00058A29E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CA21790-6050-4AD7-9219-F8D676D9D7C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -830,8 +830,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q1018"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="K39" sqref="K39:K41"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="T29" sqref="T29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -1706,7 +1706,9 @@
       <c r="P36" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="Q36" s="21"/>
+      <c r="Q36" s="47">
+        <v>1</v>
+      </c>
     </row>
     <row r="37" spans="2:17" ht="15.75" customHeight="1">
       <c r="B37" s="45" t="s">

--- a/Development/IW/Management/IW-CP.xlsx
+++ b/Development/IW/Management/IW-CP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Projects\GitHub\IndieWorks\Development\IW\Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CA21790-6050-4AD7-9219-F8D676D9D7C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6B8F6A0-1D53-445D-9A3E-F963C69612D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -506,7 +506,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -611,6 +611,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -830,8 +833,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q1018"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="T29" sqref="T29"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="K41" sqref="K41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -1660,7 +1663,7 @@
         <v>57</v>
       </c>
       <c r="Q34" s="46">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="35" spans="2:17" ht="14.25">
@@ -1703,8 +1706,8 @@
       <c r="M36" s="21"/>
       <c r="N36" s="21"/>
       <c r="O36" s="21"/>
-      <c r="P36" s="23" t="s">
-        <v>28</v>
+      <c r="P36" s="64" t="s">
+        <v>26</v>
       </c>
       <c r="Q36" s="47">
         <v>1</v>

--- a/Development/IW/Management/IW-CP.xlsx
+++ b/Development/IW/Management/IW-CP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Projects\GitHub\IndieWorks\Development\IW\Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6B8F6A0-1D53-445D-9A3E-F963C69612D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CCB4233-30B8-41D6-8EF7-00E7E6AFBE15}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -506,7 +506,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -598,6 +598,9 @@
     <xf numFmtId="0" fontId="15" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -613,9 +616,7 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -834,7 +835,7 @@
   <dimension ref="A1:Q1018"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="K41" sqref="K41"/>
+      <selection activeCell="Q43" sqref="Q43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -852,110 +853,110 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="58"/>
-      <c r="O1" s="58"/>
-      <c r="P1" s="58"/>
-      <c r="Q1" s="58"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="59"/>
+      <c r="O1" s="59"/>
+      <c r="P1" s="59"/>
+      <c r="Q1" s="59"/>
     </row>
     <row r="2" spans="1:17" ht="14.25">
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="62" t="s">
+      <c r="C2" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="58"/>
-      <c r="M2" s="58"/>
-      <c r="N2" s="58"/>
-      <c r="O2" s="58"/>
-      <c r="P2" s="58"/>
-      <c r="Q2" s="58"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="59"/>
+      <c r="P2" s="59"/>
+      <c r="Q2" s="59"/>
     </row>
     <row r="3" spans="1:17" ht="14.25">
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="62" t="s">
+      <c r="C3" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="58"/>
-      <c r="L3" s="58"/>
-      <c r="M3" s="58"/>
-      <c r="N3" s="58"/>
-      <c r="O3" s="58"/>
-      <c r="P3" s="58"/>
-      <c r="Q3" s="58"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="59"/>
+      <c r="L3" s="59"/>
+      <c r="M3" s="59"/>
+      <c r="N3" s="59"/>
+      <c r="O3" s="59"/>
+      <c r="P3" s="59"/>
+      <c r="Q3" s="59"/>
     </row>
     <row r="4" spans="1:17" ht="14.25">
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="63">
+      <c r="C4" s="64">
         <v>44132</v>
       </c>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="58"/>
-      <c r="J4" s="58"/>
-      <c r="K4" s="58"/>
-      <c r="L4" s="58"/>
-      <c r="M4" s="58"/>
-      <c r="N4" s="58"/>
-      <c r="O4" s="58"/>
-      <c r="P4" s="58"/>
-      <c r="Q4" s="58"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="59"/>
+      <c r="K4" s="59"/>
+      <c r="L4" s="59"/>
+      <c r="M4" s="59"/>
+      <c r="N4" s="59"/>
+      <c r="O4" s="59"/>
+      <c r="P4" s="59"/>
+      <c r="Q4" s="59"/>
     </row>
     <row r="5" spans="1:17" ht="14.25">
       <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="62"/>
-      <c r="D5" s="58"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="58"/>
-      <c r="G5" s="58"/>
-      <c r="H5" s="58"/>
-      <c r="I5" s="58"/>
-      <c r="J5" s="58"/>
-      <c r="K5" s="58"/>
-      <c r="L5" s="58"/>
-      <c r="M5" s="58"/>
-      <c r="N5" s="58"/>
-      <c r="O5" s="58"/>
-      <c r="P5" s="58"/>
-      <c r="Q5" s="58"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="59"/>
+      <c r="H5" s="59"/>
+      <c r="I5" s="59"/>
+      <c r="J5" s="59"/>
+      <c r="K5" s="59"/>
+      <c r="L5" s="59"/>
+      <c r="M5" s="59"/>
+      <c r="N5" s="59"/>
+      <c r="O5" s="59"/>
+      <c r="P5" s="59"/>
+      <c r="Q5" s="59"/>
     </row>
     <row r="6" spans="1:17" ht="15.75">
       <c r="B6" s="3" t="s">
@@ -1100,24 +1101,24 @@
       </c>
     </row>
     <row r="11" spans="1:17" ht="14.25">
-      <c r="B11" s="59" t="s">
+      <c r="B11" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="60"/>
-      <c r="D11" s="60"/>
-      <c r="E11" s="60"/>
-      <c r="F11" s="60"/>
-      <c r="G11" s="60"/>
-      <c r="H11" s="60"/>
-      <c r="I11" s="60"/>
-      <c r="J11" s="60"/>
-      <c r="K11" s="60"/>
-      <c r="L11" s="60"/>
-      <c r="M11" s="60"/>
-      <c r="N11" s="60"/>
-      <c r="O11" s="60"/>
-      <c r="P11" s="60"/>
-      <c r="Q11" s="61"/>
+      <c r="C11" s="61"/>
+      <c r="D11" s="61"/>
+      <c r="E11" s="61"/>
+      <c r="F11" s="61"/>
+      <c r="G11" s="61"/>
+      <c r="H11" s="61"/>
+      <c r="I11" s="61"/>
+      <c r="J11" s="61"/>
+      <c r="K11" s="61"/>
+      <c r="L11" s="61"/>
+      <c r="M11" s="61"/>
+      <c r="N11" s="61"/>
+      <c r="O11" s="61"/>
+      <c r="P11" s="61"/>
+      <c r="Q11" s="62"/>
     </row>
     <row r="12" spans="1:17">
       <c r="B12" s="5" t="s">
@@ -1706,7 +1707,7 @@
       <c r="M36" s="21"/>
       <c r="N36" s="21"/>
       <c r="O36" s="21"/>
-      <c r="P36" s="64" t="s">
+      <c r="P36" s="57" t="s">
         <v>26</v>
       </c>
       <c r="Q36" s="47">
@@ -1772,7 +1773,9 @@
       <c r="P39" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="Q39" s="6"/>
+      <c r="Q39" s="46">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="40" spans="2:17" ht="15.75" customHeight="1">
       <c r="B40" s="19" t="s">
@@ -1835,7 +1838,9 @@
       <c r="P42" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="Q42" s="30"/>
+      <c r="Q42" s="65">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="43" spans="2:17" ht="15.75" customHeight="1">
       <c r="B43" s="45" t="s">

--- a/Development/IW/Management/IW-CP.xlsx
+++ b/Development/IW/Management/IW-CP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Projects\GitHub\IndieWorks\Development\IW\Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E22FBD7-42A9-4FC6-BA91-E5FE0133E4A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{141B9E67-9A84-4F70-A455-049C4B39D147}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -267,10 +267,10 @@
     <t>Liberación</t>
   </si>
   <si>
-    <t>Hito #4:</t>
-  </si>
-  <si>
     <t>Pase a Produccion:</t>
+  </si>
+  <si>
+    <t>Hito #4: 03/01/2021</t>
   </si>
 </sst>
 </file>
@@ -571,6 +571,8 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
@@ -588,8 +590,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -808,7 +808,7 @@
   <dimension ref="A1:Q1018"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="Q46" sqref="Q46"/>
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -826,110 +826,110 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="54"/>
-      <c r="N1" s="54"/>
-      <c r="O1" s="54"/>
-      <c r="P1" s="54"/>
-      <c r="Q1" s="54"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="56"/>
+      <c r="P1" s="56"/>
+      <c r="Q1" s="56"/>
     </row>
     <row r="2" spans="1:17" ht="14.25">
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="55" t="s">
+      <c r="C2" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="54"/>
-      <c r="M2" s="54"/>
-      <c r="N2" s="54"/>
-      <c r="O2" s="54"/>
-      <c r="P2" s="54"/>
-      <c r="Q2" s="54"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="56"/>
+      <c r="O2" s="56"/>
+      <c r="P2" s="56"/>
+      <c r="Q2" s="56"/>
     </row>
     <row r="3" spans="1:17" ht="14.25">
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="55" t="s">
+      <c r="C3" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="54"/>
-      <c r="L3" s="54"/>
-      <c r="M3" s="54"/>
-      <c r="N3" s="54"/>
-      <c r="O3" s="54"/>
-      <c r="P3" s="54"/>
-      <c r="Q3" s="54"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="56"/>
+      <c r="L3" s="56"/>
+      <c r="M3" s="56"/>
+      <c r="N3" s="56"/>
+      <c r="O3" s="56"/>
+      <c r="P3" s="56"/>
+      <c r="Q3" s="56"/>
     </row>
     <row r="4" spans="1:17" ht="14.25">
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="56">
+      <c r="C4" s="58">
         <v>44132</v>
       </c>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
-      <c r="M4" s="54"/>
-      <c r="N4" s="54"/>
-      <c r="O4" s="54"/>
-      <c r="P4" s="54"/>
-      <c r="Q4" s="54"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="56"/>
+      <c r="L4" s="56"/>
+      <c r="M4" s="56"/>
+      <c r="N4" s="56"/>
+      <c r="O4" s="56"/>
+      <c r="P4" s="56"/>
+      <c r="Q4" s="56"/>
     </row>
     <row r="5" spans="1:17" ht="14.25">
       <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="55"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="54"/>
-      <c r="I5" s="54"/>
-      <c r="J5" s="54"/>
-      <c r="K5" s="54"/>
-      <c r="L5" s="54"/>
-      <c r="M5" s="54"/>
-      <c r="N5" s="54"/>
-      <c r="O5" s="54"/>
-      <c r="P5" s="54"/>
-      <c r="Q5" s="54"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="56"/>
+      <c r="J5" s="56"/>
+      <c r="K5" s="56"/>
+      <c r="L5" s="56"/>
+      <c r="M5" s="56"/>
+      <c r="N5" s="56"/>
+      <c r="O5" s="56"/>
+      <c r="P5" s="56"/>
+      <c r="Q5" s="56"/>
     </row>
     <row r="6" spans="1:17" ht="15.75">
       <c r="B6" s="3" t="s">
@@ -1074,24 +1074,24 @@
       </c>
     </row>
     <row r="11" spans="1:17" ht="14.25">
-      <c r="B11" s="57" t="s">
+      <c r="B11" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="50"/>
-      <c r="D11" s="50"/>
-      <c r="E11" s="50"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="50"/>
-      <c r="H11" s="50"/>
-      <c r="I11" s="50"/>
-      <c r="J11" s="50"/>
-      <c r="K11" s="50"/>
-      <c r="L11" s="50"/>
-      <c r="M11" s="50"/>
-      <c r="N11" s="50"/>
-      <c r="O11" s="50"/>
-      <c r="P11" s="50"/>
-      <c r="Q11" s="51"/>
+      <c r="C11" s="52"/>
+      <c r="D11" s="52"/>
+      <c r="E11" s="52"/>
+      <c r="F11" s="52"/>
+      <c r="G11" s="52"/>
+      <c r="H11" s="52"/>
+      <c r="I11" s="52"/>
+      <c r="J11" s="52"/>
+      <c r="K11" s="52"/>
+      <c r="L11" s="52"/>
+      <c r="M11" s="52"/>
+      <c r="N11" s="52"/>
+      <c r="O11" s="52"/>
+      <c r="P11" s="52"/>
+      <c r="Q11" s="53"/>
     </row>
     <row r="12" spans="1:17">
       <c r="B12" s="5" t="s">
@@ -1688,24 +1688,24 @@
       </c>
     </row>
     <row r="37" spans="2:17" ht="14.25">
-      <c r="B37" s="49" t="s">
+      <c r="B37" s="51" t="s">
         <v>65</v>
       </c>
-      <c r="C37" s="50"/>
-      <c r="D37" s="50"/>
-      <c r="E37" s="50"/>
-      <c r="F37" s="50"/>
-      <c r="G37" s="50"/>
-      <c r="H37" s="50"/>
-      <c r="I37" s="50"/>
-      <c r="J37" s="50"/>
-      <c r="K37" s="50"/>
-      <c r="L37" s="50"/>
-      <c r="M37" s="50"/>
-      <c r="N37" s="50"/>
-      <c r="O37" s="50"/>
-      <c r="P37" s="50"/>
-      <c r="Q37" s="51"/>
+      <c r="C37" s="52"/>
+      <c r="D37" s="52"/>
+      <c r="E37" s="52"/>
+      <c r="F37" s="52"/>
+      <c r="G37" s="52"/>
+      <c r="H37" s="52"/>
+      <c r="I37" s="52"/>
+      <c r="J37" s="52"/>
+      <c r="K37" s="52"/>
+      <c r="L37" s="52"/>
+      <c r="M37" s="52"/>
+      <c r="N37" s="52"/>
+      <c r="O37" s="52"/>
+      <c r="P37" s="52"/>
+      <c r="Q37" s="53"/>
     </row>
     <row r="38" spans="2:17" ht="15.75" customHeight="1">
       <c r="B38" s="27" t="s">
@@ -1770,7 +1770,7 @@
       <c r="P40" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="Q40" s="58">
+      <c r="Q40" s="49">
         <v>0.6</v>
       </c>
     </row>
@@ -1818,24 +1818,24 @@
       </c>
     </row>
     <row r="43" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B43" s="49" t="s">
+      <c r="B43" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="C43" s="50"/>
-      <c r="D43" s="50"/>
-      <c r="E43" s="50"/>
-      <c r="F43" s="50"/>
-      <c r="G43" s="50"/>
-      <c r="H43" s="50"/>
-      <c r="I43" s="50"/>
-      <c r="J43" s="50"/>
-      <c r="K43" s="50"/>
-      <c r="L43" s="50"/>
-      <c r="M43" s="50"/>
-      <c r="N43" s="50"/>
-      <c r="O43" s="50"/>
-      <c r="P43" s="50"/>
-      <c r="Q43" s="51"/>
+      <c r="C43" s="52"/>
+      <c r="D43" s="52"/>
+      <c r="E43" s="52"/>
+      <c r="F43" s="52"/>
+      <c r="G43" s="52"/>
+      <c r="H43" s="52"/>
+      <c r="I43" s="52"/>
+      <c r="J43" s="52"/>
+      <c r="K43" s="52"/>
+      <c r="L43" s="52"/>
+      <c r="M43" s="52"/>
+      <c r="N43" s="52"/>
+      <c r="O43" s="52"/>
+      <c r="P43" s="52"/>
+      <c r="Q43" s="53"/>
     </row>
     <row r="44" spans="2:17" ht="15.75" customHeight="1">
       <c r="B44" s="35" t="s">
@@ -1880,7 +1880,7 @@
       <c r="P45" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="Q45" s="59">
+      <c r="Q45" s="50">
         <v>0.15</v>
       </c>
     </row>
@@ -1950,7 +1950,7 @@
     </row>
     <row r="49" spans="2:17" ht="15.75" customHeight="1">
       <c r="B49" s="27" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C49" s="6"/>
       <c r="D49" s="6"/>
@@ -2009,24 +2009,24 @@
       <c r="Q51" s="44"/>
     </row>
     <row r="52" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B52" s="52" t="s">
-        <v>80</v>
-      </c>
-      <c r="C52" s="50"/>
-      <c r="D52" s="50"/>
-      <c r="E52" s="50"/>
-      <c r="F52" s="50"/>
-      <c r="G52" s="50"/>
-      <c r="H52" s="50"/>
-      <c r="I52" s="50"/>
-      <c r="J52" s="50"/>
-      <c r="K52" s="50"/>
-      <c r="L52" s="50"/>
-      <c r="M52" s="50"/>
-      <c r="N52" s="50"/>
-      <c r="O52" s="50"/>
-      <c r="P52" s="50"/>
-      <c r="Q52" s="51"/>
+      <c r="B52" s="54" t="s">
+        <v>81</v>
+      </c>
+      <c r="C52" s="52"/>
+      <c r="D52" s="52"/>
+      <c r="E52" s="52"/>
+      <c r="F52" s="52"/>
+      <c r="G52" s="52"/>
+      <c r="H52" s="52"/>
+      <c r="I52" s="52"/>
+      <c r="J52" s="52"/>
+      <c r="K52" s="52"/>
+      <c r="L52" s="52"/>
+      <c r="M52" s="52"/>
+      <c r="N52" s="52"/>
+      <c r="O52" s="52"/>
+      <c r="P52" s="52"/>
+      <c r="Q52" s="53"/>
     </row>
     <row r="53" spans="2:17" ht="15.75" customHeight="1">
       <c r="P53" s="46"/>

--- a/Development/IW/Management/IW-CP.xlsx
+++ b/Development/IW/Management/IW-CP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Projects\GitHub\IndieWorks\Development\IW\Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{141B9E67-9A84-4F70-A455-049C4B39D147}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5466EA96-D5B7-4B09-A910-7438F15DDF1F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -270,7 +270,7 @@
     <t>Pase a Produccion:</t>
   </si>
   <si>
-    <t>Hito #4: 03/01/2021</t>
+    <t>Hito #4: 03/02/2021</t>
   </si>
 </sst>
 </file>
@@ -280,7 +280,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -363,10 +363,18 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <i/>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -491,7 +499,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -573,10 +581,16 @@
     </xf>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -590,6 +604,9 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -805,10 +822,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q1018"/>
+  <dimension ref="A1:AM1018"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -819,119 +836,172 @@
     <col min="4" max="11" width="2.625" customWidth="1"/>
     <col min="12" max="15" width="3.5" customWidth="1"/>
     <col min="16" max="16" width="29.25" customWidth="1"/>
-    <col min="17" max="26" width="9.375" customWidth="1"/>
+    <col min="17" max="23" width="9.375" customWidth="1"/>
+    <col min="24" max="24" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="56" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="18">
+    <row r="1" spans="1:39" ht="18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="55" t="s">
+      <c r="B1" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
-      <c r="M1" s="56"/>
-      <c r="N1" s="56"/>
-      <c r="O1" s="56"/>
-      <c r="P1" s="56"/>
-      <c r="Q1" s="56"/>
-    </row>
-    <row r="2" spans="1:17" ht="14.25">
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="58"/>
+      <c r="O1" s="58"/>
+      <c r="P1" s="58"/>
+      <c r="Q1" s="58"/>
+    </row>
+    <row r="2" spans="1:39">
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="57" t="s">
+      <c r="C2" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="56"/>
-      <c r="M2" s="56"/>
-      <c r="N2" s="56"/>
-      <c r="O2" s="56"/>
-      <c r="P2" s="56"/>
-      <c r="Q2" s="56"/>
-    </row>
-    <row r="3" spans="1:17" ht="14.25">
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="58"/>
+      <c r="O2" s="58"/>
+      <c r="P2" s="58"/>
+      <c r="Q2" s="58"/>
+      <c r="X2" s="63"/>
+      <c r="Y2" s="51"/>
+    </row>
+    <row r="3" spans="1:39" ht="14.25">
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="57" t="s">
+      <c r="C3" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="56"/>
-      <c r="L3" s="56"/>
-      <c r="M3" s="56"/>
-      <c r="N3" s="56"/>
-      <c r="O3" s="56"/>
-      <c r="P3" s="56"/>
-      <c r="Q3" s="56"/>
-    </row>
-    <row r="4" spans="1:17" ht="14.25">
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="58"/>
+      <c r="M3" s="58"/>
+      <c r="N3" s="58"/>
+      <c r="O3" s="58"/>
+      <c r="P3" s="58"/>
+      <c r="Q3" s="58"/>
+      <c r="X3" s="24"/>
+      <c r="Y3" s="62"/>
+      <c r="Z3" s="51"/>
+      <c r="AA3" s="51"/>
+      <c r="AB3" s="51"/>
+      <c r="AC3" s="51"/>
+      <c r="AD3" s="51"/>
+      <c r="AE3" s="51"/>
+      <c r="AF3" s="51"/>
+      <c r="AG3" s="51"/>
+      <c r="AH3" s="51"/>
+      <c r="AI3" s="51"/>
+      <c r="AJ3" s="51"/>
+      <c r="AK3" s="51"/>
+      <c r="AL3" s="51"/>
+      <c r="AM3" s="51"/>
+    </row>
+    <row r="4" spans="1:39" ht="14.25">
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="58">
+      <c r="C4" s="60">
         <v>44132</v>
       </c>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="56"/>
-      <c r="L4" s="56"/>
-      <c r="M4" s="56"/>
-      <c r="N4" s="56"/>
-      <c r="O4" s="56"/>
-      <c r="P4" s="56"/>
-      <c r="Q4" s="56"/>
-    </row>
-    <row r="5" spans="1:17" ht="14.25">
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="58"/>
+      <c r="J4" s="58"/>
+      <c r="K4" s="58"/>
+      <c r="L4" s="58"/>
+      <c r="M4" s="58"/>
+      <c r="N4" s="58"/>
+      <c r="O4" s="58"/>
+      <c r="P4" s="58"/>
+      <c r="Q4" s="58"/>
+      <c r="X4" s="24"/>
+      <c r="Y4" s="52"/>
+      <c r="Z4" s="51"/>
+      <c r="AA4" s="51"/>
+      <c r="AB4" s="51"/>
+      <c r="AC4" s="51"/>
+      <c r="AD4" s="51"/>
+      <c r="AE4" s="51"/>
+      <c r="AF4" s="51"/>
+      <c r="AG4" s="51"/>
+      <c r="AH4" s="51"/>
+      <c r="AI4" s="51"/>
+      <c r="AJ4" s="51"/>
+      <c r="AK4" s="51"/>
+      <c r="AL4" s="51"/>
+      <c r="AM4" s="51"/>
+    </row>
+    <row r="5" spans="1:39" ht="14.25">
       <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="57"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="56"/>
-      <c r="J5" s="56"/>
-      <c r="K5" s="56"/>
-      <c r="L5" s="56"/>
-      <c r="M5" s="56"/>
-      <c r="N5" s="56"/>
-      <c r="O5" s="56"/>
-      <c r="P5" s="56"/>
-      <c r="Q5" s="56"/>
-    </row>
-    <row r="6" spans="1:17" ht="15.75">
+      <c r="C5" s="59"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="58"/>
+      <c r="G5" s="58"/>
+      <c r="H5" s="58"/>
+      <c r="I5" s="58"/>
+      <c r="J5" s="58"/>
+      <c r="K5" s="58"/>
+      <c r="L5" s="58"/>
+      <c r="M5" s="58"/>
+      <c r="N5" s="58"/>
+      <c r="O5" s="58"/>
+      <c r="P5" s="58"/>
+      <c r="Q5" s="58"/>
+      <c r="X5" s="24"/>
+      <c r="Y5" s="53"/>
+      <c r="Z5" s="51"/>
+      <c r="AA5" s="51"/>
+      <c r="AB5" s="51"/>
+      <c r="AC5" s="51"/>
+      <c r="AD5" s="51"/>
+      <c r="AE5" s="51"/>
+      <c r="AF5" s="51"/>
+      <c r="AG5" s="51"/>
+      <c r="AH5" s="51"/>
+      <c r="AI5" s="51"/>
+      <c r="AJ5" s="51"/>
+      <c r="AK5" s="51"/>
+      <c r="AL5" s="51"/>
+      <c r="AM5" s="51"/>
+    </row>
+    <row r="6" spans="1:39" ht="15.75">
       <c r="B6" s="3" t="s">
         <v>8</v>
       </c>
@@ -981,7 +1051,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:39">
       <c r="B7" s="5" t="s">
         <v>24</v>
       </c>
@@ -1001,7 +1071,7 @@
       <c r="P7" s="7"/>
       <c r="Q7" s="6"/>
     </row>
-    <row r="8" spans="1:17" ht="14.25">
+    <row r="8" spans="1:39" ht="14.25">
       <c r="B8" s="8" t="s">
         <v>25</v>
       </c>
@@ -1025,7 +1095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="14.25">
+    <row r="9" spans="1:39" ht="14.25">
       <c r="B9" s="8" t="s">
         <v>27</v>
       </c>
@@ -1049,7 +1119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="14.25">
+    <row r="10" spans="1:39" ht="14.25">
       <c r="B10" s="8" t="s">
         <v>29</v>
       </c>
@@ -1073,27 +1143,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="14.25">
-      <c r="B11" s="59" t="s">
+    <row r="11" spans="1:39" ht="14.25">
+      <c r="B11" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="52"/>
-      <c r="D11" s="52"/>
-      <c r="E11" s="52"/>
-      <c r="F11" s="52"/>
-      <c r="G11" s="52"/>
-      <c r="H11" s="52"/>
-      <c r="I11" s="52"/>
-      <c r="J11" s="52"/>
-      <c r="K11" s="52"/>
-      <c r="L11" s="52"/>
-      <c r="M11" s="52"/>
-      <c r="N11" s="52"/>
-      <c r="O11" s="52"/>
-      <c r="P11" s="52"/>
-      <c r="Q11" s="53"/>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="C11" s="55"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="55"/>
+      <c r="G11" s="55"/>
+      <c r="H11" s="55"/>
+      <c r="I11" s="55"/>
+      <c r="J11" s="55"/>
+      <c r="K11" s="55"/>
+      <c r="L11" s="55"/>
+      <c r="M11" s="55"/>
+      <c r="N11" s="55"/>
+      <c r="O11" s="55"/>
+      <c r="P11" s="55"/>
+      <c r="Q11" s="56"/>
+    </row>
+    <row r="12" spans="1:39">
       <c r="B12" s="5" t="s">
         <v>31</v>
       </c>
@@ -1113,7 +1183,7 @@
       <c r="P12" s="13"/>
       <c r="Q12" s="6"/>
     </row>
-    <row r="13" spans="1:17" ht="14.25">
+    <row r="13" spans="1:39" ht="14.25">
       <c r="B13" s="14" t="s">
         <v>32</v>
       </c>
@@ -1137,7 +1207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="14.25">
+    <row r="14" spans="1:39" ht="14.25">
       <c r="B14" s="16" t="s">
         <v>34</v>
       </c>
@@ -1161,7 +1231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="14.25">
+    <row r="15" spans="1:39" ht="14.25">
       <c r="B15" s="17" t="s">
         <v>35</v>
       </c>
@@ -1184,7 +1254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="14.25">
+    <row r="16" spans="1:39" ht="14.25">
       <c r="B16" s="18" t="s">
         <v>36</v>
       </c>
@@ -1688,24 +1758,24 @@
       </c>
     </row>
     <row r="37" spans="2:17" ht="14.25">
-      <c r="B37" s="51" t="s">
+      <c r="B37" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="C37" s="52"/>
-      <c r="D37" s="52"/>
-      <c r="E37" s="52"/>
-      <c r="F37" s="52"/>
-      <c r="G37" s="52"/>
-      <c r="H37" s="52"/>
-      <c r="I37" s="52"/>
-      <c r="J37" s="52"/>
-      <c r="K37" s="52"/>
-      <c r="L37" s="52"/>
-      <c r="M37" s="52"/>
-      <c r="N37" s="52"/>
-      <c r="O37" s="52"/>
-      <c r="P37" s="52"/>
-      <c r="Q37" s="53"/>
+      <c r="C37" s="55"/>
+      <c r="D37" s="55"/>
+      <c r="E37" s="55"/>
+      <c r="F37" s="55"/>
+      <c r="G37" s="55"/>
+      <c r="H37" s="55"/>
+      <c r="I37" s="55"/>
+      <c r="J37" s="55"/>
+      <c r="K37" s="55"/>
+      <c r="L37" s="55"/>
+      <c r="M37" s="55"/>
+      <c r="N37" s="55"/>
+      <c r="O37" s="55"/>
+      <c r="P37" s="55"/>
+      <c r="Q37" s="56"/>
     </row>
     <row r="38" spans="2:17" ht="15.75" customHeight="1">
       <c r="B38" s="27" t="s">
@@ -1818,24 +1888,24 @@
       </c>
     </row>
     <row r="43" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B43" s="51" t="s">
+      <c r="B43" s="54" t="s">
         <v>73</v>
       </c>
-      <c r="C43" s="52"/>
-      <c r="D43" s="52"/>
-      <c r="E43" s="52"/>
-      <c r="F43" s="52"/>
-      <c r="G43" s="52"/>
-      <c r="H43" s="52"/>
-      <c r="I43" s="52"/>
-      <c r="J43" s="52"/>
-      <c r="K43" s="52"/>
-      <c r="L43" s="52"/>
-      <c r="M43" s="52"/>
-      <c r="N43" s="52"/>
-      <c r="O43" s="52"/>
-      <c r="P43" s="52"/>
-      <c r="Q43" s="53"/>
+      <c r="C43" s="55"/>
+      <c r="D43" s="55"/>
+      <c r="E43" s="55"/>
+      <c r="F43" s="55"/>
+      <c r="G43" s="55"/>
+      <c r="H43" s="55"/>
+      <c r="I43" s="55"/>
+      <c r="J43" s="55"/>
+      <c r="K43" s="55"/>
+      <c r="L43" s="55"/>
+      <c r="M43" s="55"/>
+      <c r="N43" s="55"/>
+      <c r="O43" s="55"/>
+      <c r="P43" s="55"/>
+      <c r="Q43" s="56"/>
     </row>
     <row r="44" spans="2:17" ht="15.75" customHeight="1">
       <c r="B44" s="35" t="s">
@@ -1904,7 +1974,9 @@
       <c r="P46" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="Q46" s="6"/>
+      <c r="Q46" s="49">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="47" spans="2:17" ht="15.75" customHeight="1">
       <c r="B47" s="27" t="s">
@@ -1946,7 +2018,9 @@
       <c r="P48" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="Q48" s="6"/>
+      <c r="Q48" s="49">
+        <v>0</v>
+      </c>
     </row>
     <row r="49" spans="2:17" ht="15.75" customHeight="1">
       <c r="B49" s="27" t="s">
@@ -1988,7 +2062,9 @@
       <c r="P50" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="Q50" s="6"/>
+      <c r="Q50" s="49">
+        <v>0</v>
+      </c>
     </row>
     <row r="51" spans="2:17" ht="15.75" customHeight="1">
       <c r="B51" s="43"/>
@@ -2009,24 +2085,24 @@
       <c r="Q51" s="44"/>
     </row>
     <row r="52" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B52" s="54" t="s">
+      <c r="B52" s="64" t="s">
         <v>81</v>
       </c>
-      <c r="C52" s="52"/>
-      <c r="D52" s="52"/>
-      <c r="E52" s="52"/>
-      <c r="F52" s="52"/>
-      <c r="G52" s="52"/>
-      <c r="H52" s="52"/>
-      <c r="I52" s="52"/>
-      <c r="J52" s="52"/>
-      <c r="K52" s="52"/>
-      <c r="L52" s="52"/>
-      <c r="M52" s="52"/>
-      <c r="N52" s="52"/>
-      <c r="O52" s="52"/>
-      <c r="P52" s="52"/>
-      <c r="Q52" s="53"/>
+      <c r="C52" s="55"/>
+      <c r="D52" s="55"/>
+      <c r="E52" s="55"/>
+      <c r="F52" s="55"/>
+      <c r="G52" s="55"/>
+      <c r="H52" s="55"/>
+      <c r="I52" s="55"/>
+      <c r="J52" s="55"/>
+      <c r="K52" s="55"/>
+      <c r="L52" s="55"/>
+      <c r="M52" s="55"/>
+      <c r="N52" s="55"/>
+      <c r="O52" s="55"/>
+      <c r="P52" s="55"/>
+      <c r="Q52" s="56"/>
     </row>
     <row r="53" spans="2:17" ht="15.75" customHeight="1">
       <c r="P53" s="46"/>
@@ -4983,6 +5059,6 @@
     <mergeCell ref="B37:Q37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>